--- a/Experimental Data.xlsx
+++ b/Experimental Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edrick Files\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87385740-AEC3-4FAD-BF08-10DEA0AD9A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51AAD31-F2D5-4A82-BAC6-6914F7CA09DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="14460" windowHeight="11835" activeTab="1" xr2:uid="{0E9776CF-3A94-469A-90BE-379D07E8715A}"/>
+    <workbookView xWindow="4725" yWindow="3510" windowWidth="15615" windowHeight="8475" activeTab="1" xr2:uid="{0E9776CF-3A94-469A-90BE-379D07E8715A}"/>
   </bookViews>
   <sheets>
     <sheet name="First Phase" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="57">
   <si>
     <t>App Launching</t>
   </si>
@@ -203,9 +204,6 @@
   </si>
   <si>
     <t>PO after a week of being applied</t>
-  </si>
-  <si>
-    <t>With</t>
   </si>
 </sst>
 </file>
@@ -447,37 +445,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +460,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,6 +473,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,31 +529,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,10 +559,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -585,16 +595,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,43 +622,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,6 +656,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1000,60 +998,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="27"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -1065,25 +1063,25 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="40" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="19" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
@@ -1095,19 +1093,19 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="22" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
@@ -1116,8 +1114,8 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1127,9 +1125,9 @@
       <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1147,10 +1145,10 @@
       <c r="S8"/>
     </row>
     <row r="9" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2">
         <v>13.96</v>
       </c>
@@ -1160,11 +1158,11 @@
       <c r="G9" s="2">
         <v>7.66</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="21">
         <v>20.63</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="7">
         <v>5</v>
       </c>
@@ -1182,10 +1180,10 @@
       <c r="S9"/>
     </row>
     <row r="10" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="2">
         <v>12.43</v>
       </c>
@@ -1195,11 +1193,11 @@
       <c r="G10" s="2">
         <v>6.08</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="21">
         <v>21.45</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="4">
         <v>4</v>
       </c>
@@ -1217,10 +1215,10 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="2">
         <v>10.24</v>
       </c>
@@ -1230,11 +1228,11 @@
       <c r="G11" s="2">
         <v>5.94</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="21">
         <v>19.63</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="4">
         <v>5</v>
       </c>
@@ -1252,10 +1250,10 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="2">
         <f>AVERAGE(E9,E10,E11)</f>
         <v>12.21</v>
@@ -1268,12 +1266,12 @@
         <f>AVERAGE(G9,G10,G11)</f>
         <v>6.56</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="21">
         <f>AVERAGE(H9:J11)</f>
         <v>20.569999999999997</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="4">
         <f>AVERAGE(K9:K11)</f>
         <v>4.666666666666667</v>
@@ -1294,16 +1292,16 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="33">
+      <c r="D13" s="25"/>
+      <c r="E13" s="26">
         <f>AVERAGE(E12:G12)</f>
         <v>16.978888888888889</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1318,19 +1316,19 @@
       <c r="S13"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="27"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -1339,25 +1337,25 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="3:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="19" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
@@ -1366,19 +1364,19 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="22" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
@@ -1387,8 +1385,8 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1398,9 +1396,9 @@
       <c r="G18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1418,10 +1416,10 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2">
         <v>42.42</v>
       </c>
@@ -1431,11 +1429,11 @@
       <c r="G19" s="2">
         <v>6.01</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="21">
         <v>25.27</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="7">
         <v>4</v>
       </c>
@@ -1453,10 +1451,10 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2">
         <v>39.03</v>
       </c>
@@ -1466,11 +1464,11 @@
       <c r="G20" s="2">
         <v>4.71</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="21">
         <v>27.54</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="4">
         <v>8</v>
       </c>
@@ -1488,10 +1486,10 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2">
         <v>35.590000000000003</v>
       </c>
@@ -1501,11 +1499,11 @@
       <c r="G21" s="2">
         <v>4.8099999999999996</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="21">
         <v>25.02</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="4">
         <v>8</v>
       </c>
@@ -1523,10 +1521,10 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="2">
         <f>AVERAGE(E19,E20,E21)</f>
         <v>39.013333333333335</v>
@@ -1539,12 +1537,12 @@
         <f>AVERAGE(G19,G20,G21)</f>
         <v>5.1766666666666659</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="21">
         <f>AVERAGE(H19,H20,H21)</f>
         <v>25.943333333333332</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="4">
         <f>AVERAGE(K19:K21)</f>
         <v>6.666666666666667</v>
@@ -1564,16 +1562,16 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="33">
+      <c r="D23" s="25"/>
+      <c r="E23" s="26">
         <f>AVERAGE(E22:G22)</f>
         <v>36.305555555555557</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1588,19 +1586,19 @@
       <c r="S23"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="27"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -1609,25 +1607,25 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="19" t="s">
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
@@ -1636,19 +1634,19 @@
       <c r="S26"/>
     </row>
     <row r="27" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="22" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
@@ -1657,8 +1655,8 @@
       <c r="S27"/>
     </row>
     <row r="28" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1668,9 +1666,9 @@
       <c r="G28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="9" t="s">
         <v>10</v>
       </c>
@@ -1688,10 +1686,10 @@
       <c r="S28"/>
     </row>
     <row r="29" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2">
         <v>3.49</v>
       </c>
@@ -1701,11 +1699,11 @@
       <c r="G29" s="2">
         <v>3.38</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="21">
         <v>16.940000000000001</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="7">
         <v>4</v>
       </c>
@@ -1723,10 +1721,10 @@
       <c r="S29"/>
     </row>
     <row r="30" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="2">
         <v>4.4800000000000004</v>
       </c>
@@ -1736,11 +1734,11 @@
       <c r="G30" s="2">
         <v>2.23</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="21">
         <v>15.41</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="4">
         <v>4</v>
       </c>
@@ -1758,10 +1756,10 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="2">
         <v>4.29</v>
       </c>
@@ -1771,11 +1769,11 @@
       <c r="G31" s="2">
         <v>1.51</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="21">
         <v>13.14</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="4">
         <v>4</v>
       </c>
@@ -1793,10 +1791,10 @@
       <c r="S31"/>
     </row>
     <row r="32" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="2">
         <f>AVERAGE(E29,E30,E31)</f>
         <v>4.0866666666666669</v>
@@ -1809,12 +1807,12 @@
         <f>AVERAGE(G29,G30,G31)</f>
         <v>2.3733333333333331</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="21">
         <f>AVERAGE(H29:J31)</f>
         <v>15.163333333333334</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="4">
         <f>AVERAGE(K29,K30,K31)</f>
         <v>4</v>
@@ -1835,16 +1833,16 @@
       <c r="S32"/>
     </row>
     <row r="33" spans="3:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="33">
+      <c r="D33" s="25"/>
+      <c r="E33" s="26">
         <f>AVERAGE(E32:G32)</f>
         <v>5.0844444444444452</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1860,43 +1858,43 @@
     </row>
     <row r="34" spans="3:19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="26"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="25"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="36" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="14" t="s">
         <v>9</v>
       </c>
@@ -1914,33 +1912,33 @@
       <c r="S36" s="16"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="22" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="22" t="s">
+      <c r="L37" s="51"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="22" t="s">
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="23"/>
-      <c r="S37" s="24"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="52"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1950,9 +1948,9 @@
       <c r="G38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
       <c r="K38" s="9" t="s">
         <v>10</v>
       </c>
@@ -1982,10 +1980,10 @@
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2">
         <v>20.89</v>
       </c>
@@ -1995,11 +1993,11 @@
       <c r="G39" s="2">
         <v>5.19</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="21">
         <v>21.69</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="7">
         <v>6</v>
       </c>
@@ -2029,10 +2027,10 @@
       </c>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="2">
         <v>15.66</v>
       </c>
@@ -2042,11 +2040,11 @@
       <c r="G40" s="2">
         <v>4.99</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="21">
         <v>20.04</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="4">
         <v>6</v>
       </c>
@@ -2076,10 +2074,10 @@
       </c>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="2">
         <v>16.18</v>
       </c>
@@ -2089,11 +2087,11 @@
       <c r="G41" s="2">
         <v>4.13</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="21">
         <v>19.579999999999998</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="4">
         <v>5</v>
       </c>
@@ -2123,10 +2121,10 @@
       </c>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="2">
         <f>AVERAGE(E39,E40,E41)</f>
         <v>17.576666666666664</v>
@@ -2139,12 +2137,12 @@
         <f>AVERAGE(G39,G40,G41)</f>
         <v>4.7699999999999996</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="21">
         <f>AVERAGE(H39:J41)</f>
         <v>20.436666666666667</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="4">
         <f t="shared" ref="K42:S42" si="0">AVERAGE(K39,K40,K41)</f>
         <v>5.666666666666667</v>
@@ -2183,16 +2181,16 @@
       </c>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="33">
+      <c r="D43" s="25"/>
+      <c r="E43" s="26">
         <f>AVERAGE(E42:G42)</f>
         <v>23.126666666666665</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2207,87 +2205,87 @@
       <c r="S43" s="3"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="26"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="25"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="36" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="40" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="19" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="19" t="s">
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="20"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="19" t="s">
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="21"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="49"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="22" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="22" t="s">
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="22" t="s">
+      <c r="O47" s="51"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R47" s="23"/>
-      <c r="S47" s="24"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="52"/>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="5" t="s">
         <v>1</v>
       </c>
@@ -2297,9 +2295,9 @@
       <c r="G48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="9" t="s">
         <v>10</v>
       </c>
@@ -2329,10 +2327,10 @@
       </c>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="2">
         <v>31.35</v>
       </c>
@@ -2342,11 +2340,11 @@
       <c r="G49" s="2">
         <v>5.25</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="21">
         <v>19.95</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="7">
         <v>5</v>
       </c>
@@ -2376,10 +2374,10 @@
       </c>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="26"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="2">
         <v>31.22</v>
       </c>
@@ -2389,11 +2387,11 @@
       <c r="G50" s="2">
         <v>4.28</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="21">
         <v>21.06</v>
       </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="4">
         <v>8</v>
       </c>
@@ -2423,10 +2421,10 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="26"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="2">
         <v>32.72</v>
       </c>
@@ -2436,11 +2434,11 @@
       <c r="G51" s="2">
         <v>5.37</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="21">
         <v>19.93</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="4">
         <v>8</v>
       </c>
@@ -2470,10 +2468,10 @@
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="2">
         <f>AVERAGE(E49,E50,E51)</f>
         <v>31.763333333333332</v>
@@ -2486,12 +2484,12 @@
         <f>AVERAGE(G49,G50,G51)</f>
         <v>4.9666666666666677</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="21">
         <f>AVERAGE(H49:J51)</f>
         <v>20.313333333333333</v>
       </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="4">
         <f t="shared" ref="K52:S52" si="1">AVERAGE(K49,K50,K51)</f>
         <v>7</v>
@@ -2530,16 +2528,16 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="33">
+      <c r="D53" s="25"/>
+      <c r="E53" s="26">
         <f>AVERAGE(E52:G52)</f>
         <v>31.758888888888887</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2554,87 +2552,87 @@
       <c r="S53" s="3"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="26"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="25"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="36" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="40" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="19" t="s">
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="19" t="s">
+      <c r="L56" s="48"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O56" s="20"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="19" t="s">
+      <c r="O56" s="48"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R56" s="20"/>
-      <c r="S56" s="21"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="49"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="22" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="23"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="22" t="s">
+      <c r="L57" s="51"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="23"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="22" t="s">
+      <c r="O57" s="51"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R57" s="23"/>
-      <c r="S57" s="24"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="52"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="5" t="s">
         <v>1</v>
       </c>
@@ -2644,9 +2642,9 @@
       <c r="G58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="46"/>
       <c r="K58" s="9" t="s">
         <v>10</v>
       </c>
@@ -2676,10 +2674,10 @@
       </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="2">
         <v>4.66</v>
       </c>
@@ -2689,11 +2687,11 @@
       <c r="G59" s="2">
         <v>1.8</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="21">
         <v>15.97</v>
       </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="7">
         <v>4</v>
       </c>
@@ -2723,10 +2721,10 @@
       </c>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="2">
         <v>3.48</v>
       </c>
@@ -2736,11 +2734,11 @@
       <c r="G60" s="2">
         <v>1.59</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="21">
         <v>16.23</v>
       </c>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="4">
         <v>5</v>
       </c>
@@ -2770,10 +2768,10 @@
       </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="26"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="2">
         <v>3.94</v>
       </c>
@@ -2783,11 +2781,11 @@
       <c r="G61" s="2">
         <v>1.65</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="21">
         <v>15.13</v>
       </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="4">
         <v>5</v>
       </c>
@@ -2817,10 +2815,10 @@
       </c>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="2">
         <f>AVERAGE(E59,E60,E61)</f>
         <v>4.0266666666666664</v>
@@ -2833,12 +2831,12 @@
         <f>AVERAGE(G59,G60,G61)</f>
         <v>1.68</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="21">
         <f>AVERAGE(H59:J61)</f>
         <v>15.776666666666669</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="4">
         <f t="shared" ref="K62:S62" si="2">AVERAGE(K59,K60,K61)</f>
         <v>4.666666666666667</v>
@@ -2877,16 +2875,16 @@
       </c>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="33">
+      <c r="D63" s="25"/>
+      <c r="E63" s="26">
         <f>AVERAGE(E62:G62)</f>
         <v>6.4088888888888889</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -2902,43 +2900,43 @@
     </row>
     <row r="64" spans="3:19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="26"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="25"/>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="36" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="40" t="s">
+      <c r="F66" s="34"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="42"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="14" t="s">
         <v>9</v>
       </c>
@@ -2956,33 +2954,33 @@
       <c r="S66" s="16"/>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="22" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L67" s="23"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="22" t="s">
+      <c r="L67" s="51"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="22" t="s">
+      <c r="O67" s="51"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="23"/>
-      <c r="S67" s="24"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="52"/>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C68" s="49"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2992,9 +2990,9 @@
       <c r="G68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="46"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="48"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
       <c r="K68" s="9" t="s">
         <v>10</v>
       </c>
@@ -3024,10 +3022,10 @@
       </c>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="50"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="2">
         <v>21.03</v>
       </c>
@@ -3037,11 +3035,11 @@
       <c r="G69" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H69" s="21">
         <v>18.100000000000001</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="7">
         <v>4</v>
       </c>
@@ -3071,10 +3069,10 @@
       </c>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="2">
         <v>15.39</v>
       </c>
@@ -3084,11 +3082,11 @@
       <c r="G70" s="2">
         <v>4.72</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="21">
         <v>16.809999999999999</v>
       </c>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="4">
         <v>5</v>
       </c>
@@ -3118,10 +3116,10 @@
       </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="26"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="2">
         <v>15.9</v>
       </c>
@@ -3131,11 +3129,11 @@
       <c r="G71" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="21">
         <v>18.239999999999998</v>
       </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="4">
         <v>5</v>
       </c>
@@ -3165,10 +3163,10 @@
       </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="26"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="2">
         <f>AVERAGE(E69,E70,E71)</f>
         <v>17.440000000000001</v>
@@ -3181,12 +3179,12 @@
         <f>AVERAGE(G69,G70,G71)</f>
         <v>4.419999999999999</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="21">
         <f>AVERAGE(H69:J71)</f>
         <v>17.716666666666665</v>
       </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="32"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="4">
         <f t="shared" ref="K72:S72" si="3">AVERAGE(K69,K70,K71)</f>
         <v>4.666666666666667</v>
@@ -3225,16 +3223,16 @@
       </c>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="33">
+      <c r="D73" s="25"/>
+      <c r="E73" s="26">
         <f>AVERAGE(E72:G72)</f>
         <v>13.877777777777778</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="35"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -3249,87 +3247,87 @@
       <c r="S73" s="3"/>
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="26"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="25"/>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="36" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="40" t="s">
+      <c r="F76" s="34"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="19" t="s">
+      <c r="I76" s="39"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="20"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="19" t="s">
+      <c r="L76" s="48"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O76" s="20"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="19" t="s">
+      <c r="O76" s="48"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R76" s="20"/>
-      <c r="S76" s="21"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="49"/>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C77" s="53"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="22" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="23"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="22" t="s">
+      <c r="L77" s="51"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O77" s="23"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="22" t="s">
+      <c r="O77" s="51"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R77" s="23"/>
-      <c r="S77" s="24"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="52"/>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C78" s="49"/>
-      <c r="D78" s="50"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="5" t="s">
         <v>1</v>
       </c>
@@ -3339,9 +3337,9 @@
       <c r="G78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="48"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="46"/>
       <c r="K78" s="9" t="s">
         <v>10</v>
       </c>
@@ -3371,10 +3369,10 @@
       </c>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="50"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="2">
         <v>34.479999999999997</v>
       </c>
@@ -3384,11 +3382,11 @@
       <c r="G79" s="2">
         <v>5.55</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H79" s="21">
         <v>26.02</v>
       </c>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="7">
         <v>5</v>
       </c>
@@ -3418,10 +3416,10 @@
       </c>
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="2">
         <v>36.71</v>
       </c>
@@ -3431,11 +3429,11 @@
       <c r="G80" s="2">
         <v>5.93</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="21">
         <v>26.87</v>
       </c>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="23"/>
       <c r="K80" s="4">
         <v>7</v>
       </c>
@@ -3465,10 +3463,10 @@
       </c>
     </row>
     <row r="81" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="26"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="2">
         <v>37.090000000000003</v>
       </c>
@@ -3478,11 +3476,11 @@
       <c r="G81" s="2">
         <v>5.48</v>
       </c>
-      <c r="H81" s="30">
+      <c r="H81" s="21">
         <v>26.22</v>
       </c>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="23"/>
       <c r="K81" s="4">
         <v>9</v>
       </c>
@@ -3512,10 +3510,10 @@
       </c>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="2">
         <f>AVERAGE(E79,E80,E81)</f>
         <v>36.093333333333334</v>
@@ -3528,12 +3526,12 @@
         <f>AVERAGE(G79,G80,G81)</f>
         <v>5.6533333333333333</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H82" s="21">
         <f>AVERAGE(H79:J81)</f>
         <v>26.37</v>
       </c>
-      <c r="I82" s="31"/>
-      <c r="J82" s="32"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="23"/>
       <c r="K82" s="4">
         <f t="shared" ref="K82:S82" si="4">AVERAGE(K79,K80,K81)</f>
         <v>7</v>
@@ -3572,16 +3570,16 @@
       </c>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="33">
+      <c r="D83" s="25"/>
+      <c r="E83" s="26">
         <f>AVERAGE(E82:G82)</f>
         <v>25.396666666666665</v>
       </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -3596,87 +3594,87 @@
       <c r="S83" s="3"/>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="26"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="25"/>
     </row>
     <row r="86" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="36" t="s">
+      <c r="D86" s="31"/>
+      <c r="E86" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="40" t="s">
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="41"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="19" t="s">
+      <c r="I86" s="39"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L86" s="20"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="19" t="s">
+      <c r="L86" s="48"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O86" s="20"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="19" t="s">
+      <c r="O86" s="48"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R86" s="20"/>
-      <c r="S86" s="21"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="49"/>
     </row>
     <row r="87" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C87" s="53"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="22" t="s">
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="23"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="22" t="s">
+      <c r="L87" s="51"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O87" s="23"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="22" t="s">
+      <c r="O87" s="51"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R87" s="23"/>
-      <c r="S87" s="24"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="52"/>
     </row>
     <row r="88" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C88" s="49"/>
-      <c r="D88" s="50"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="5" t="s">
         <v>1</v>
       </c>
@@ -3686,9 +3684,9 @@
       <c r="G88" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="46"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="48"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="46"/>
       <c r="K88" s="9" t="s">
         <v>10</v>
       </c>
@@ -3718,10 +3716,10 @@
       </c>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="50"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="2">
         <v>5.13</v>
       </c>
@@ -3731,11 +3729,11 @@
       <c r="G89" s="2">
         <v>2.78</v>
       </c>
-      <c r="H89" s="30">
+      <c r="H89" s="21">
         <v>14.94</v>
       </c>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="23"/>
       <c r="K89" s="7">
         <v>4</v>
       </c>
@@ -3765,10 +3763,10 @@
       </c>
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="2">
         <v>2.16</v>
       </c>
@@ -3778,11 +3776,11 @@
       <c r="G90" s="2">
         <v>1.54</v>
       </c>
-      <c r="H90" s="30">
+      <c r="H90" s="21">
         <v>15.21</v>
       </c>
-      <c r="I90" s="31"/>
-      <c r="J90" s="32"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="23"/>
       <c r="K90" s="4">
         <v>5</v>
       </c>
@@ -3812,10 +3810,10 @@
       </c>
     </row>
     <row r="91" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="26"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="2">
         <v>4</v>
       </c>
@@ -3825,11 +3823,11 @@
       <c r="G91" s="2">
         <v>1.4</v>
       </c>
-      <c r="H91" s="30">
+      <c r="H91" s="21">
         <v>15.25</v>
       </c>
-      <c r="I91" s="31"/>
-      <c r="J91" s="32"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="23"/>
       <c r="K91" s="4">
         <v>4</v>
       </c>
@@ -3859,10 +3857,10 @@
       </c>
     </row>
     <row r="92" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="26"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="2">
         <f>AVERAGE(E89,E90,E91)</f>
         <v>3.7633333333333332</v>
@@ -3875,12 +3873,12 @@
         <f>AVERAGE(G89,G90,G91)</f>
         <v>1.906666666666667</v>
       </c>
-      <c r="H92" s="30">
+      <c r="H92" s="21">
         <f>AVERAGE(H89:J91)</f>
         <v>15.133333333333333</v>
       </c>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="23"/>
       <c r="K92" s="4">
         <f t="shared" ref="K92:S92" si="5">AVERAGE(K89,K90,K91)</f>
         <v>4.333333333333333</v>
@@ -3919,16 +3917,16 @@
       </c>
     </row>
     <row r="93" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="33">
+      <c r="D93" s="25"/>
+      <c r="E93" s="26">
         <f>AVERAGE(E92:G92)</f>
         <v>4.6566666666666663</v>
       </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="35"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -3944,76 +3942,81 @@
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="C85:M85"/>
-    <mergeCell ref="C86:D88"/>
-    <mergeCell ref="E86:G87"/>
-    <mergeCell ref="H86:J88"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="C75:M75"/>
-    <mergeCell ref="C76:D78"/>
-    <mergeCell ref="E76:G77"/>
-    <mergeCell ref="H76:J78"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="C66:D68"/>
-    <mergeCell ref="E66:G67"/>
-    <mergeCell ref="H66:J68"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C56:D58"/>
-    <mergeCell ref="E56:G57"/>
-    <mergeCell ref="H56:J58"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="N65:S65"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="N75:S75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="N85:S85"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="N55:S55"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C2:S3"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="H6:J8"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C6:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C36:D38"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J38"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J28"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="C16:D18"/>
+    <mergeCell ref="E16:G17"/>
+    <mergeCell ref="H16:J18"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -4038,81 +4041,76 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C36:D38"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J38"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J28"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="C16:D18"/>
-    <mergeCell ref="E16:G17"/>
-    <mergeCell ref="H16:J18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="C45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C2:S3"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="H6:J8"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="N65:S65"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="N75:S75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="N85:S85"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C56:D58"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="H56:J58"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C66:D68"/>
+    <mergeCell ref="E66:G67"/>
+    <mergeCell ref="H66:J68"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C75:M75"/>
+    <mergeCell ref="C76:D78"/>
+    <mergeCell ref="E76:G77"/>
+    <mergeCell ref="H76:J78"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="C85:M85"/>
+    <mergeCell ref="C86:D88"/>
+    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="H86:J88"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4124,8 +4122,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:L20"/>
+    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4135,58 +4133,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -4199,87 +4197,87 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="62" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="N6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="64"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="68"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="N7" s="65" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="67"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="40" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="N8" s="61" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="N8" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="68"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="57" t="s">
         <v>35</v>
       </c>
@@ -4302,19 +4300,19 @@
       <c r="Y8" s="57"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="68"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
       <c r="R9" s="57"/>
@@ -4327,27 +4325,27 @@
       <c r="Y9" s="57"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="33">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
         <f>'First Phase'!E43</f>
         <v>23.126666666666665</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="30">
+      <c r="I10" s="25"/>
+      <c r="J10" s="21">
         <f>'First Phase'!H42</f>
         <v>20.436666666666667</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="N10" s="73" t="s">
         <v>30</v>
       </c>
@@ -4369,37 +4367,37 @@
         <v>10</v>
       </c>
       <c r="W10" s="57"/>
-      <c r="X10" s="58">
+      <c r="X10" s="55">
         <v>4</v>
       </c>
-      <c r="Y10" s="59"/>
+      <c r="Y10" s="56"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="33">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26">
         <f>'First Phase'!E13</f>
         <v>16.978888888888889</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="30">
+      <c r="I11" s="25"/>
+      <c r="J11" s="21">
         <f>'First Phase'!H12</f>
         <v>20.569999999999997</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="N11" s="60" t="s">
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="N11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="61"/>
+      <c r="O11" s="70"/>
       <c r="P11" s="57">
         <v>1.5</v>
       </c>
@@ -4417,37 +4415,37 @@
         <v>7.5</v>
       </c>
       <c r="W11" s="57"/>
-      <c r="X11" s="58">
+      <c r="X11" s="55">
         <v>3</v>
       </c>
-      <c r="Y11" s="59"/>
+      <c r="Y11" s="56"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="33" t="str">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="str">
         <f>IMSUB(D10,D11)</f>
         <v>6.14777777777778</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="30" t="str">
+      <c r="I12" s="25"/>
+      <c r="J12" s="21" t="str">
         <f>IMSUB(J10,J11)</f>
         <v>-0.133333333333329</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="N12" s="60" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="N12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="61"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="57">
         <v>3</v>
       </c>
@@ -4465,16 +4463,16 @@
         <v>7</v>
       </c>
       <c r="W12" s="57"/>
-      <c r="X12" s="58">
+      <c r="X12" s="55">
         <v>2</v>
       </c>
-      <c r="Y12" s="59"/>
+      <c r="Y12" s="56"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="57">
         <v>1.5</v>
       </c>
@@ -4492,102 +4490,102 @@
         <v>5.5</v>
       </c>
       <c r="W13" s="57"/>
-      <c r="X13" s="58">
+      <c r="X13" s="55">
         <v>1</v>
       </c>
-      <c r="Y13" s="59"/>
+      <c r="Y13" s="56"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="H14" s="76" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="H14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="N15" s="62" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="N15" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="64"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="68"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="H16" s="51" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="H16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="N16" s="65" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="N16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="65"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="N17" s="61" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+      <c r="N17" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="68"/>
+      <c r="O17" s="78"/>
       <c r="P17" s="57" t="s">
         <v>35</v>
       </c>
@@ -4600,70 +4598,70 @@
         <v>12</v>
       </c>
       <c r="U17" s="57"/>
-      <c r="V17" s="69" t="s">
+      <c r="V17" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="70"/>
+      <c r="W17" s="75"/>
       <c r="X17" s="57" t="s">
         <v>49</v>
       </c>
       <c r="Y17" s="57"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="33">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26">
         <f>'First Phase'!E53</f>
         <v>31.758888888888887</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="25" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="H18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="30">
+      <c r="I18" s="25"/>
+      <c r="J18" s="21">
         <f>'First Phase'!H52</f>
         <v>20.313333333333333</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="68"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="78"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="57"/>
       <c r="R18" s="57"/>
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="72"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="77"/>
       <c r="X18" s="57"/>
       <c r="Y18" s="57"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="33">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26">
         <f>'First Phase'!E23</f>
         <v>36.305555555555557</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="H19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="30">
+      <c r="I19" s="25"/>
+      <c r="J19" s="21">
         <f>'First Phase'!H22</f>
         <v>25.943333333333332</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
       <c r="N19" s="73" t="s">
         <v>30</v>
       </c>
@@ -4685,36 +4683,36 @@
         <v>6</v>
       </c>
       <c r="W19" s="57"/>
-      <c r="X19" s="58">
+      <c r="X19" s="55">
         <v>1</v>
       </c>
-      <c r="Y19" s="59"/>
+      <c r="Y19" s="56"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="33" t="str">
+      <c r="C20" s="25"/>
+      <c r="D20" s="26" t="str">
         <f>IMSUB(D18,D19)</f>
         <v>-4.54666666666667</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="H20" s="25" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="H20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="30" t="str">
+      <c r="I20" s="25"/>
+      <c r="J20" s="21" t="str">
         <f>IMSUB(J18,J19)</f>
         <v>-5.63</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="N20" s="60" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="N20" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="61"/>
+      <c r="O20" s="70"/>
       <c r="P20" s="57">
         <v>1.5</v>
       </c>
@@ -4732,16 +4730,16 @@
         <v>6.5</v>
       </c>
       <c r="W20" s="57"/>
-      <c r="X20" s="58">
+      <c r="X20" s="55">
         <v>2.5</v>
       </c>
-      <c r="Y20" s="59"/>
+      <c r="Y20" s="56"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="61"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="57">
         <v>4</v>
       </c>
@@ -4759,30 +4757,30 @@
         <v>11</v>
       </c>
       <c r="W21" s="57"/>
-      <c r="X21" s="58">
+      <c r="X21" s="55">
         <v>4</v>
       </c>
-      <c r="Y21" s="59"/>
+      <c r="Y21" s="56"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="H22" s="76" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="H22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="N22" s="55" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="N22" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="56"/>
+      <c r="O22" s="72"/>
       <c r="P22" s="57">
         <v>1.5</v>
       </c>
@@ -4800,108 +4798,108 @@
         <v>6.5</v>
       </c>
       <c r="W22" s="57"/>
-      <c r="X22" s="58">
+      <c r="X22" s="55">
         <v>2.5</v>
       </c>
-      <c r="Y22" s="59"/>
+      <c r="Y22" s="56"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="74" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="H24" s="51" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="H24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="40" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="N24" s="62" t="s">
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="N24" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="N25" s="65" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="N25" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="67"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="65"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="33">
+      <c r="C26" s="25"/>
+      <c r="D26" s="26">
         <f>'First Phase'!E63</f>
         <v>6.4088888888888889</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="H26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="30">
+      <c r="I26" s="25"/>
+      <c r="J26" s="21">
         <f>'First Phase'!H62</f>
         <v>15.776666666666669</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="N26" s="61" t="s">
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="N26" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="68"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="57" t="s">
         <v>35</v>
       </c>
@@ -4914,70 +4912,70 @@
         <v>12</v>
       </c>
       <c r="U26" s="57"/>
-      <c r="V26" s="69" t="s">
+      <c r="V26" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W26" s="70"/>
+      <c r="W26" s="75"/>
       <c r="X26" s="57" t="s">
         <v>49</v>
       </c>
       <c r="Y26" s="57"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="33">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26">
         <f>'First Phase'!E33</f>
         <v>5.0844444444444452</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="H27" s="25" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="H27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="30">
+      <c r="I27" s="25"/>
+      <c r="J27" s="21">
         <f>'First Phase'!H32</f>
         <v>15.163333333333334</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="68"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="57"/>
       <c r="R27" s="57"/>
       <c r="S27" s="57"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="72"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="77"/>
       <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="33" t="str">
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="str">
         <f>IMSUB(D26,D27)</f>
         <v>1.32444444444444</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="H28" s="25" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="H28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="30" t="str">
+      <c r="I28" s="25"/>
+      <c r="J28" s="21" t="str">
         <f>IMSUB(J26,J27)</f>
         <v>0.613333333333335</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
       <c r="N28" s="73" t="s">
         <v>30</v>
       </c>
@@ -4999,16 +4997,16 @@
         <v>12</v>
       </c>
       <c r="W28" s="57"/>
-      <c r="X28" s="58">
+      <c r="X28" s="55">
         <v>4</v>
       </c>
-      <c r="Y28" s="59"/>
+      <c r="Y28" s="56"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="61"/>
+      <c r="O29" s="70"/>
       <c r="P29" s="57">
         <v>1.5</v>
       </c>
@@ -5026,16 +5024,16 @@
         <v>7.5</v>
       </c>
       <c r="W29" s="57"/>
-      <c r="X29" s="58">
+      <c r="X29" s="55">
         <v>3</v>
       </c>
-      <c r="Y29" s="59"/>
+      <c r="Y29" s="56"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="60" t="s">
+      <c r="N30" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="61"/>
+      <c r="O30" s="70"/>
       <c r="P30" s="57">
         <v>3</v>
       </c>
@@ -5053,16 +5051,16 @@
         <v>5</v>
       </c>
       <c r="W30" s="57"/>
-      <c r="X30" s="58">
+      <c r="X30" s="55">
         <v>1</v>
       </c>
-      <c r="Y30" s="59"/>
+      <c r="Y30" s="56"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N31" s="55" t="s">
+      <c r="N31" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="56"/>
+      <c r="O31" s="72"/>
       <c r="P31" s="57">
         <v>1.5</v>
       </c>
@@ -5080,147 +5078,147 @@
         <v>5.5</v>
       </c>
       <c r="W31" s="57"/>
-      <c r="X31" s="58">
+      <c r="X31" s="55">
         <v>2</v>
       </c>
-      <c r="Y31" s="59"/>
+      <c r="Y31" s="56"/>
     </row>
     <row r="32" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
     </row>
     <row r="33" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
-      <c r="N34" s="62" t="s">
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="N34" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="64"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="68"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="77"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
-      <c r="N35" s="65" t="s">
+      <c r="H35" s="60"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="N35" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="67"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="74" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="40" t="s">
+      <c r="I36" s="31"/>
+      <c r="J36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
-      <c r="N36" s="61" t="s">
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="N36" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="68"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="57" t="s">
         <v>35</v>
       </c>
@@ -5243,19 +5241,19 @@
       <c r="Y36" s="57"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="68"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="57"/>
       <c r="Q37" s="57"/>
       <c r="R37" s="57"/>
@@ -5268,27 +5266,27 @@
       <c r="Y37" s="57"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="33">
+      <c r="C38" s="25"/>
+      <c r="D38" s="26">
         <f>'First Phase'!E73</f>
         <v>13.877777777777778</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="30">
+      <c r="I38" s="25"/>
+      <c r="J38" s="21">
         <f>'First Phase'!H72</f>
         <v>17.716666666666665</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
       <c r="N38" s="73" t="s">
         <v>30</v>
       </c>
@@ -5310,37 +5308,37 @@
         <v>9.5</v>
       </c>
       <c r="W38" s="57"/>
-      <c r="X38" s="58">
+      <c r="X38" s="55">
         <v>4</v>
       </c>
-      <c r="Y38" s="59"/>
+      <c r="Y38" s="56"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="33">
+      <c r="C39" s="25"/>
+      <c r="D39" s="26">
         <f>'First Phase'!E13</f>
         <v>16.978888888888889</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="30">
+      <c r="I39" s="25"/>
+      <c r="J39" s="21">
         <f>'First Phase'!H12</f>
         <v>20.569999999999997</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
-      <c r="N39" s="60" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="N39" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="61"/>
+      <c r="O39" s="70"/>
       <c r="P39" s="57">
         <v>3</v>
       </c>
@@ -5358,37 +5356,37 @@
         <v>8</v>
       </c>
       <c r="W39" s="57"/>
-      <c r="X39" s="58">
+      <c r="X39" s="55">
         <v>2.5</v>
       </c>
-      <c r="Y39" s="59"/>
+      <c r="Y39" s="56"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="33" t="str">
+      <c r="C40" s="25"/>
+      <c r="D40" s="26" t="str">
         <f>IMSUB(D38,D39)</f>
         <v>-3.10111111111111</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="30" t="str">
+      <c r="I40" s="25"/>
+      <c r="J40" s="21" t="str">
         <f>IMSUB(J38,J39)</f>
         <v>-2.85333333333333</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="32"/>
-      <c r="N40" s="60" t="s">
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="N40" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="61"/>
+      <c r="O40" s="70"/>
       <c r="P40" s="57">
         <v>4</v>
       </c>
@@ -5406,16 +5404,16 @@
         <v>8</v>
       </c>
       <c r="W40" s="57"/>
-      <c r="X40" s="58">
+      <c r="X40" s="55">
         <v>2.5</v>
       </c>
-      <c r="Y40" s="59"/>
+      <c r="Y40" s="56"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N41" s="55" t="s">
+      <c r="N41" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="72"/>
       <c r="P41" s="57">
         <v>1.5</v>
       </c>
@@ -5433,102 +5431,102 @@
         <v>4.5</v>
       </c>
       <c r="W41" s="57"/>
-      <c r="X41" s="58">
+      <c r="X41" s="55">
         <v>1</v>
       </c>
-      <c r="Y41" s="59"/>
+      <c r="Y41" s="56"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="H42" s="76" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="H42" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="77"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
-      <c r="N43" s="62" t="s">
+      <c r="B43" s="60"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="N43" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="64"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="68"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="74" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="H44" s="51" t="s">
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="40" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="N44" s="65" t="s">
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="N44" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="67"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="65"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
-      <c r="N45" s="61" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
+      <c r="N45" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="68"/>
+      <c r="O45" s="78"/>
       <c r="P45" s="57" t="s">
         <v>35</v>
       </c>
@@ -5541,70 +5539,70 @@
         <v>12</v>
       </c>
       <c r="U45" s="57"/>
-      <c r="V45" s="69" t="s">
+      <c r="V45" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W45" s="70"/>
+      <c r="W45" s="75"/>
       <c r="X45" s="57" t="s">
         <v>49</v>
       </c>
       <c r="Y45" s="57"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="33">
+      <c r="C46" s="25"/>
+      <c r="D46" s="26">
         <f>'First Phase'!E83</f>
         <v>25.396666666666665</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="H46" s="25" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="H46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="30">
+      <c r="I46" s="25"/>
+      <c r="J46" s="21">
         <f>'First Phase'!H82</f>
         <v>26.37</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="68"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="78"/>
       <c r="P46" s="57"/>
       <c r="Q46" s="57"/>
       <c r="R46" s="57"/>
       <c r="S46" s="57"/>
       <c r="T46" s="57"/>
       <c r="U46" s="57"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="72"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="77"/>
       <c r="X46" s="57"/>
       <c r="Y46" s="57"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="33">
+      <c r="C47" s="25"/>
+      <c r="D47" s="26">
         <f>'First Phase'!E23</f>
         <v>36.305555555555557</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="H47" s="25" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="H47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="30">
+      <c r="I47" s="25"/>
+      <c r="J47" s="21">
         <f>'First Phase'!H22</f>
         <v>25.943333333333332</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
       <c r="N47" s="73" t="s">
         <v>30</v>
       </c>
@@ -5626,36 +5624,36 @@
         <v>7</v>
       </c>
       <c r="W47" s="57"/>
-      <c r="X47" s="58">
+      <c r="X47" s="55">
         <v>2</v>
       </c>
-      <c r="Y47" s="59"/>
+      <c r="Y47" s="56"/>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="33" t="str">
+      <c r="C48" s="25"/>
+      <c r="D48" s="26" t="str">
         <f>IMSUB(D46,D47)</f>
         <v>-10.9088888888889</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="H48" s="25" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="H48" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="30" t="str">
+      <c r="I48" s="25"/>
+      <c r="J48" s="21" t="str">
         <f>IMSUB(J46,J47)</f>
         <v>0.426666666666669</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="N48" s="60" t="s">
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="N48" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O48" s="61"/>
+      <c r="O48" s="70"/>
       <c r="P48" s="57">
         <v>4</v>
       </c>
@@ -5673,16 +5671,16 @@
         <v>9</v>
       </c>
       <c r="W48" s="57"/>
-      <c r="X48" s="58">
+      <c r="X48" s="55">
         <v>4</v>
       </c>
-      <c r="Y48" s="59"/>
+      <c r="Y48" s="56"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N49" s="60" t="s">
+      <c r="N49" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O49" s="61"/>
+      <c r="O49" s="70"/>
       <c r="P49" s="57">
         <v>1</v>
       </c>
@@ -5700,30 +5698,30 @@
         <v>7</v>
       </c>
       <c r="W49" s="57"/>
-      <c r="X49" s="58">
+      <c r="X49" s="55">
         <v>2</v>
       </c>
-      <c r="Y49" s="59"/>
+      <c r="Y49" s="56"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="H50" s="76" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="H50" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="N50" s="55" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+      <c r="N50" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="56"/>
+      <c r="O50" s="72"/>
       <c r="P50" s="57">
         <v>2</v>
       </c>
@@ -5741,108 +5739,108 @@
         <v>7</v>
       </c>
       <c r="W50" s="57"/>
-      <c r="X50" s="58">
+      <c r="X50" s="55">
         <v>2</v>
       </c>
-      <c r="Y50" s="59"/>
+      <c r="Y50" s="56"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="77"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="74" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="H52" s="51" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="H52" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="40" t="s">
+      <c r="I52" s="31"/>
+      <c r="J52" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="N52" s="62" t="s">
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="N52" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="64"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
+      <c r="Y52" s="68"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="48"/>
-      <c r="N53" s="65" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="46"/>
+      <c r="N53" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
-      <c r="W53" s="66"/>
-      <c r="X53" s="66"/>
-      <c r="Y53" s="67"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="65"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="33">
+      <c r="C54" s="25"/>
+      <c r="D54" s="26">
         <f>'First Phase'!E93</f>
         <v>4.6566666666666663</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="H54" s="25" t="s">
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="H54" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="30">
+      <c r="I54" s="25"/>
+      <c r="J54" s="21">
         <f>'First Phase'!H92</f>
         <v>15.133333333333333</v>
       </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
-      <c r="N54" s="61" t="s">
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="N54" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O54" s="68"/>
+      <c r="O54" s="78"/>
       <c r="P54" s="57" t="s">
         <v>35</v>
       </c>
@@ -5855,69 +5853,70 @@
         <v>12</v>
       </c>
       <c r="U54" s="57"/>
-      <c r="V54" s="69" t="s">
+      <c r="V54" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W54" s="70"/>
+      <c r="W54" s="75"/>
       <c r="X54" s="57" t="s">
         <v>49</v>
       </c>
       <c r="Y54" s="57"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="33">
+      <c r="C55" s="25"/>
+      <c r="D55" s="26">
         <f>'First Phase'!E33</f>
         <v>5.0844444444444452</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
-      <c r="H55" s="25" t="s">
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="H55" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="30">
+      <c r="I55" s="25"/>
+      <c r="J55" s="21">
         <f>'First Phase'!H32</f>
         <v>15.163333333333334</v>
       </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="68"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="78"/>
       <c r="P55" s="57"/>
       <c r="Q55" s="57"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
       <c r="T55" s="57"/>
       <c r="U55" s="57"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="72"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="77"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="57"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="33" t="str">
+      <c r="C56" s="25"/>
+      <c r="D56" s="26" t="str">
         <f>IMSUB(D54,D55)</f>
         <v>-0.427777777777779</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="H56" s="25" t="s">
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="H56" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="21" t="str">
+        <f>IMSUB(J54,J55)</f>
+        <v>-0.0300000000000011</v>
+      </c>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
       <c r="N56" s="73" t="s">
         <v>30</v>
       </c>
@@ -5939,16 +5938,16 @@
         <v>5</v>
       </c>
       <c r="W56" s="57"/>
-      <c r="X56" s="58">
+      <c r="X56" s="55">
         <v>1</v>
       </c>
-      <c r="Y56" s="59"/>
+      <c r="Y56" s="56"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N57" s="60" t="s">
+      <c r="N57" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="61"/>
+      <c r="O57" s="70"/>
       <c r="P57" s="57">
         <v>3</v>
       </c>
@@ -5966,16 +5965,16 @@
         <v>7</v>
       </c>
       <c r="W57" s="57"/>
-      <c r="X57" s="58">
+      <c r="X57" s="55">
         <v>2</v>
       </c>
-      <c r="Y57" s="59"/>
+      <c r="Y57" s="56"/>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N58" s="60" t="s">
+      <c r="N58" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O58" s="61"/>
+      <c r="O58" s="70"/>
       <c r="P58" s="57">
         <v>3</v>
       </c>
@@ -5993,16 +5992,16 @@
         <v>9</v>
       </c>
       <c r="W58" s="57"/>
-      <c r="X58" s="58">
+      <c r="X58" s="55">
         <v>3.5</v>
       </c>
-      <c r="Y58" s="59"/>
+      <c r="Y58" s="56"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N59" s="55" t="s">
+      <c r="N59" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="O59" s="56"/>
+      <c r="O59" s="72"/>
       <c r="P59" s="57">
         <v>1</v>
       </c>
@@ -6020,28 +6019,276 @@
         <v>9</v>
       </c>
       <c r="W59" s="57"/>
-      <c r="X59" s="58">
+      <c r="X59" s="55">
         <v>3.5</v>
       </c>
-      <c r="Y59" s="59"/>
+      <c r="Y59" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="N52:Y52"/>
+    <mergeCell ref="N53:Y53"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="R54:S55"/>
+    <mergeCell ref="T54:U55"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Y55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="N43:Y43"/>
+    <mergeCell ref="N44:Y44"/>
+    <mergeCell ref="N45:O46"/>
+    <mergeCell ref="P45:Q46"/>
+    <mergeCell ref="R45:S46"/>
+    <mergeCell ref="T45:U46"/>
+    <mergeCell ref="V45:W46"/>
+    <mergeCell ref="X45:Y46"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="N34:Y34"/>
+    <mergeCell ref="N35:Y35"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="P36:Q37"/>
+    <mergeCell ref="R36:S37"/>
+    <mergeCell ref="T36:U37"/>
+    <mergeCell ref="V36:W37"/>
+    <mergeCell ref="X36:Y37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H6:L7"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:L25"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="R17:S18"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X17:Y18"/>
+    <mergeCell ref="N15:Y15"/>
+    <mergeCell ref="N16:Y16"/>
+    <mergeCell ref="V17:W18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="T26:U27"/>
+    <mergeCell ref="V26:W27"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:L37"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="N24:Y24"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="J44:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="H50:L51"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="B42:F43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="B32:Y33"/>
     <mergeCell ref="B3:Y4"/>
     <mergeCell ref="B50:F51"/>
@@ -6066,269 +6313,21 @@
     <mergeCell ref="J54:L54"/>
     <mergeCell ref="H42:L43"/>
     <mergeCell ref="H44:I45"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="B42:F43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="H50:L51"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J44:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:L37"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="X26:Y27"/>
-    <mergeCell ref="N24:Y24"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X17:Y18"/>
-    <mergeCell ref="N15:Y15"/>
-    <mergeCell ref="N16:Y16"/>
-    <mergeCell ref="V17:W18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="T26:U27"/>
-    <mergeCell ref="V26:W27"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="V8:W9"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:L25"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H6:L7"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="N34:Y34"/>
-    <mergeCell ref="N35:Y35"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="P36:Q37"/>
-    <mergeCell ref="R36:S37"/>
-    <mergeCell ref="T36:U37"/>
-    <mergeCell ref="V36:W37"/>
-    <mergeCell ref="X36:Y37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="N43:Y43"/>
-    <mergeCell ref="N44:Y44"/>
-    <mergeCell ref="N45:O46"/>
-    <mergeCell ref="P45:Q46"/>
-    <mergeCell ref="R45:S46"/>
-    <mergeCell ref="T45:U46"/>
-    <mergeCell ref="V45:W46"/>
-    <mergeCell ref="X45:Y46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="N52:Y52"/>
-    <mergeCell ref="N53:Y53"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="R54:S55"/>
-    <mergeCell ref="T54:U55"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Y55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6349,123 +6348,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="H5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="H7" s="79" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="H7" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="58" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="59"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="57" t="s">
         <v>36</v>
       </c>
@@ -6476,13 +6475,13 @@
       <c r="S7" s="57"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="57" t="s">
         <v>43</v>
       </c>
@@ -6501,20 +6500,20 @@
       <c r="S8" s="57"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="83">
+      <c r="C9" s="25"/>
+      <c r="D9" s="79">
         <v>6.1477777777777796</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="57">
         <v>4</v>
       </c>
@@ -6538,20 +6537,20 @@
       <c r="S9" s="57"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="83">
+      <c r="C10" s="25"/>
+      <c r="D10" s="79">
         <v>-4.5466666666666704</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="80"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="57">
         <v>3</v>
       </c>
@@ -6575,20 +6574,20 @@
       <c r="S10" s="57"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="83">
+      <c r="C11" s="25"/>
+      <c r="D11" s="79">
         <v>1.3244444444444401</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="57">
         <v>2</v>
       </c>
@@ -6612,21 +6611,21 @@
       <c r="S11" s="57"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="84">
+      <c r="C12" s="25"/>
+      <c r="D12" s="90">
         <f>AVERAGE(D9:F11)</f>
         <v>0.97518518518518305</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="57">
         <v>1</v>
       </c>
@@ -6650,191 +6649,191 @@
       <c r="S12" s="57"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="86" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="82">
+      <c r="C18" s="25"/>
+      <c r="D18" s="80">
         <v>-0.133333333333329</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="82">
+      <c r="C19" s="25"/>
+      <c r="D19" s="80">
         <v>-5.63</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="82">
+      <c r="C20" s="25"/>
+      <c r="D20" s="80">
         <v>0.61333333333333495</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="85">
+      <c r="C21" s="25"/>
+      <c r="D21" s="81">
         <f>AVERAGE(D18:F20)</f>
         <v>-1.7166666666666648</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
     </row>
     <row r="23" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="H24" s="80" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="74" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="H26" s="79" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="H26" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="80"/>
-      <c r="J26" s="58" t="s">
+      <c r="I26" s="83"/>
+      <c r="J26" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="59"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="56"/>
       <c r="P26" s="57" t="s">
         <v>36</v>
       </c>
@@ -6845,13 +6844,13 @@
       <c r="S26" s="57"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="80"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="83"/>
       <c r="J27" s="57" t="s">
         <v>43</v>
       </c>
@@ -6870,20 +6869,20 @@
       <c r="S27" s="57"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="83">
+      <c r="C28" s="25"/>
+      <c r="D28" s="79">
         <v>-3.10111111111111</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="80"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="57">
         <v>4</v>
       </c>
@@ -6907,20 +6906,20 @@
       <c r="S28" s="57"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="83">
+      <c r="C29" s="25"/>
+      <c r="D29" s="79">
         <v>-10.9088888888889</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="83"/>
       <c r="J29" s="57">
         <v>2.5</v>
       </c>
@@ -6944,20 +6943,20 @@
       <c r="S29" s="57"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="83">
+      <c r="C30" s="25"/>
+      <c r="D30" s="79">
         <v>-0.42777777777777898</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="80"/>
+      <c r="I30" s="83"/>
       <c r="J30" s="57">
         <v>2.5</v>
       </c>
@@ -6981,21 +6980,21 @@
       <c r="S30" s="57"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="84">
+      <c r="C31" s="25"/>
+      <c r="D31" s="90">
         <f>AVERAGE(D28:F30)</f>
         <v>-4.8125925925925959</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="80"/>
+      <c r="I31" s="83"/>
       <c r="J31" s="57">
         <v>1</v>
       </c>
@@ -7019,110 +7018,149 @@
       <c r="S31" s="57"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="77"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="86" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="82">
+      <c r="C37" s="25"/>
+      <c r="D37" s="80">
         <v>-2.8533333333333299</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="82">
+      <c r="C38" s="25"/>
+      <c r="D38" s="80">
         <v>0.42666666666666903</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="82">
+      <c r="C39" s="25"/>
+      <c r="D39" s="80">
         <v>-3.0000000000001099E-2</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="85">
+      <c r="C40" s="25"/>
+      <c r="D40" s="81">
         <f>AVERAGE(D37:F39)</f>
         <v>-0.81888888888888733</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B2:S3"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="H5:S6"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B22:S23"/>
@@ -7147,69 +7185,30 @@
     <mergeCell ref="R26:S27"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B2:S3"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:F17"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="H5:S6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
